--- a/biology/Botanique/Kartoffelsuppe/Kartoffelsuppe.xlsx
+++ b/biology/Botanique/Kartoffelsuppe/Kartoffelsuppe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Kartoffelsuppe (soupe de pommes de terre) est une soupe traditionnelle allemande et autrichienne dont le principal ingrédient est la pomme de terre. Il existe de nombreuses variantes de cette recette dans lesquelles les pommes de terre sont cuites avec d'autres légumes, tels que carottes, céleri, oignons, le tout dans une saumure ou bien un bouillon de viande.
